--- a/team_data.xlsx
+++ b/team_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\OneDrive\Documents\R\NFLCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386F9C28-46BF-42E2-ABD7-6257A1F29513}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A3E59-F1FA-4092-A233-2518FF3FE6D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{8CEFDB9C-BA20-4F22-AB51-419BEEE726F2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
   <si>
     <t>Team_ID</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>AFC</t>
+  </si>
+  <si>
+    <t>NFC West</t>
+  </si>
+  <si>
+    <t>AFC West</t>
+  </si>
+  <si>
+    <t>NFC South</t>
+  </si>
+  <si>
+    <t>AFC North</t>
+  </si>
+  <si>
+    <t>AFC East</t>
+  </si>
+  <si>
+    <t>NFC North</t>
+  </si>
+  <si>
+    <t>NFC East</t>
+  </si>
+  <si>
+    <t>AFC South</t>
   </si>
 </sst>
 </file>
@@ -693,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4453E206-3BDE-4566-BE87-E42BE6FED732}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,6 +771,9 @@
       <c r="F2" t="s">
         <v>103</v>
       </c>
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -764,6 +791,9 @@
       <c r="F3" t="s">
         <v>103</v>
       </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -781,6 +811,9 @@
       <c r="F4" t="s">
         <v>104</v>
       </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -798,6 +831,9 @@
       <c r="F5" t="s">
         <v>104</v>
       </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -815,6 +851,9 @@
       <c r="F6" t="s">
         <v>103</v>
       </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -832,6 +871,9 @@
       <c r="F7" t="s">
         <v>103</v>
       </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -849,6 +891,9 @@
       <c r="F8" t="s">
         <v>104</v>
       </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -866,6 +911,9 @@
       <c r="F9" t="s">
         <v>104</v>
       </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -883,6 +931,9 @@
       <c r="F10" t="s">
         <v>103</v>
       </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -900,6 +951,9 @@
       <c r="F11" t="s">
         <v>104</v>
       </c>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -917,6 +971,9 @@
       <c r="F12" t="s">
         <v>103</v>
       </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -934,6 +991,9 @@
       <c r="F13" t="s">
         <v>103</v>
       </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -951,6 +1011,9 @@
       <c r="F14" t="s">
         <v>104</v>
       </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -968,6 +1031,9 @@
       <c r="F15" t="s">
         <v>104</v>
       </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -985,8 +1051,11 @@
       <c r="F16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1002,8 +1071,11 @@
       <c r="F17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1019,8 +1091,11 @@
       <c r="F18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1036,8 +1111,11 @@
       <c r="F19" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1053,8 +1131,11 @@
       <c r="F20" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1070,8 +1151,11 @@
       <c r="F21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1087,8 +1171,11 @@
       <c r="F22" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1104,8 +1191,11 @@
       <c r="F23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1121,8 +1211,11 @@
       <c r="F24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1138,8 +1231,11 @@
       <c r="F25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1155,8 +1251,11 @@
       <c r="F26" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1172,8 +1271,11 @@
       <c r="F27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1189,8 +1291,11 @@
       <c r="F28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1206,8 +1311,11 @@
       <c r="F29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1223,8 +1331,11 @@
       <c r="F30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1240,8 +1351,11 @@
       <c r="F31" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1257,8 +1371,11 @@
       <c r="F32" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1273,6 +1390,9 @@
       </c>
       <c r="F33" t="s">
         <v>103</v>
+      </c>
+      <c r="G33" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
